--- a/medicine/Sexualité et sexologie/Au-delà_de_la_pénétration/Au-delà_de_la_pénétration.xlsx
+++ b/medicine/Sexualité et sexologie/Au-delà_de_la_pénétration/Au-delà_de_la_pénétration.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Au-del%C3%A0_de_la_p%C3%A9n%C3%A9tration</t>
+          <t>Au-delà_de_la_pénétration</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Au-delà de la pénétration est un livre qui s'inscrit dans le genre essai, culture et société écrit par Martin Page. Une première édition est sortie en 2018, puis une deuxième en 2020.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Au-del%C3%A0_de_la_p%C3%A9n%C3%A9tration</t>
+          <t>Au-delà_de_la_pénétration</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Les débuts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les maisons d'éditions avaient en réalité refusé d'éditer ce livre. Ayant déjà fondé sa propre micro maison d'édition, Martin Page a alors sorti son livre à travers Monstograph. Ce fut un réel succès puisqu'il s'est vendu à plus de 2 000 exemplaires en un mois, et est maintenant connu du jeune public. 
 De plus, on peut le retrouver en format classique, en livre de poche mais aussi en ebook.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Au-del%C3%A0_de_la_p%C3%A9n%C3%A9tration</t>
+          <t>Au-delà_de_la_pénétration</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>La forme du livre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un livre de 160 pages qui se découpe en 4 parties. 
 Dans la première partie, l'auteur explique d'abord ce qui l'a poussé à écrire ce livre, à réfléchir sur  la notion de pénétration et plus encore, sur ce qu'elle en dit. Il questionne alors la place de la pénétration par rapport à la place de la femme vis-à-vis de l'homme, ou encore la place de l'homme vis-à-vis de la femme. Il fait ainsi un parallèle en la sexualité et la société et la politique.
